--- a/CASOS DE PRUEBA PROYECTO FINAL.xlsx
+++ b/CASOS DE PRUEBA PROYECTO FINAL.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\OneDrive\Documents\GitHub\proyecto-final-coderhouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D32B581-DB61-4100-B2B2-E80E25FA24BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73951D5E-1957-415B-B3AF-A6F3C3257172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{532A63B5-6D06-45E4-8D15-61F50010B517}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7270" xr2:uid="{532A63B5-6D06-45E4-8D15-61F50010B517}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC" sheetId="1" r:id="rId1"/>
+    <sheet name="TEST CASES" sheetId="1" r:id="rId1"/>
     <sheet name="GRÁFICOS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="123">
   <si>
     <t xml:space="preserve">Id </t>
   </si>
@@ -391,6 +383,21 @@
   </si>
   <si>
     <t xml:space="preserve">Librería El Virrey | Sección Libros |Buscador por categorías </t>
+  </si>
+  <si>
+    <t>TC010/D</t>
+  </si>
+  <si>
+    <t>Librería El Virrey | Sección Links de redes sociales</t>
+  </si>
+  <si>
+    <t>Al seleccionar un icono de redes sociales de la librería, estos me redirijan al perfil de la misma</t>
+  </si>
+  <si>
+    <t>Dirigirse a los botones de links de redes sociales y seleccionar alguno de ellos</t>
+  </si>
+  <si>
+    <t>Se despliegue otra página con el perfil de la librería en la plataforma seleccionada</t>
   </si>
 </sst>
 </file>
@@ -467,7 +474,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +530,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +695,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -711,13 +742,117 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,39 +864,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,66 +880,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,6 +1047,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AE41-44F5-A49B-6E3E682FDFEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1034,6 +1089,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AE41-44F5-A49B-6E3E682FDFEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1107,7 +1167,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1362,6 +1422,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D2CD-44F2-AB50-24734DA50DF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1399,6 +1464,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D2CD-44F2-AB50-24734DA50DF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1472,7 +1542,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -1685,6 +1755,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-329B-4D62-8D18-9911D25E6A5F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1724,6 +1799,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-329B-4D62-8D18-9911D25E6A5F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1800,7 +1880,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,6 +2084,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9F6D-4F01-8CEA-0B1DA48984B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2040,6 +2125,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9F6D-4F01-8CEA-0B1DA48984B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2079,6 +2169,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9F6D-4F01-8CEA-0B1DA48984B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2155,7 +2250,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -4670,23 +4765,23 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.90625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" customWidth="1"/>
-    <col min="4" max="4" width="50.26953125" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="50.26953125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="31" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" style="28" customWidth="1"/>
     <col min="7" max="7" width="6.1796875" customWidth="1"/>
-    <col min="8" max="8" width="65.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.26953125" customWidth="1"/>
     <col min="10" max="10" width="15.453125" customWidth="1"/>
     <col min="11" max="11" width="21.7265625" style="15" customWidth="1"/>
   </cols>
@@ -4727,22 +4822,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="60" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -4754,20 +4849,20 @@
       <c r="I2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
@@ -4777,16 +4872,16 @@
       <c r="I3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="25"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
@@ -4796,16 +4891,16 @@
       <c r="I4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="25"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
@@ -4815,16 +4910,16 @@
       <c r="I5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="25"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
@@ -4834,29 +4929,29 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="25"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="25"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
@@ -4866,24 +4961,24 @@
       <c r="I8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="26"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
@@ -4893,20 +4988,20 @@
       <c r="I9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
@@ -4916,67 +5011,67 @@
       <c r="I10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="60" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -4988,20 +5083,20 @@
       <c r="I14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="48"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="31"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
@@ -5011,16 +5106,16 @@
       <c r="I15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="48"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="31"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
@@ -5030,16 +5125,16 @@
       <c r="I16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="48"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="7" t="s">
         <v>20</v>
       </c>
@@ -5049,52 +5144,52 @@
       <c r="I17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="48"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="31"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="49"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="59"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="20"/>
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="60"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
     </row>
     <row r="20" spans="1:11" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="46" t="s">
         <v>61</v>
       </c>
       <c r="G20" s="17" t="s">
@@ -5106,20 +5201,20 @@
       <c r="I20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="44" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="3" t="s">
         <v>15</v>
       </c>
@@ -5129,16 +5224,16 @@
       <c r="I21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
@@ -5148,16 +5243,16 @@
       <c r="I22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="3" t="s">
         <v>20</v>
       </c>
@@ -5167,16 +5262,16 @@
       <c r="I23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="3" t="s">
         <v>21</v>
       </c>
@@ -5186,16 +5281,16 @@
       <c r="I24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="35"/>
     </row>
     <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="3" t="s">
         <v>22</v>
       </c>
@@ -5205,39 +5300,39 @@
       <c r="I25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="35"/>
     </row>
     <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
       <c r="G26" s="3"/>
       <c r="H26" s="11"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="3" t="s">
         <v>12</v>
       </c>
@@ -5247,20 +5342,20 @@
       <c r="I27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="40" t="s">
+      <c r="K27" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="3" t="s">
         <v>15</v>
       </c>
@@ -5270,16 +5365,16 @@
       <c r="I28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="3" t="s">
         <v>16</v>
       </c>
@@ -5289,16 +5384,16 @@
       <c r="I29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="41"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="3" t="s">
         <v>20</v>
       </c>
@@ -5308,16 +5403,16 @@
       <c r="I30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="37"/>
-      <c r="K30" s="41"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="3" t="s">
         <v>21</v>
       </c>
@@ -5327,16 +5422,16 @@
       <c r="I31" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="41"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
       <c r="G32" s="3" t="s">
         <v>22</v>
       </c>
@@ -5346,65 +5441,65 @@
       <c r="I32" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J32" s="37"/>
-      <c r="K32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="3"/>
       <c r="H33" s="11"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="41"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="3"/>
       <c r="H34" s="11"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="41"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="35"/>
     </row>
     <row r="35" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="41"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="35"/>
     </row>
     <row r="36" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="36"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="3" t="s">
         <v>12</v>
       </c>
@@ -5414,20 +5509,20 @@
       <c r="I36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="40" t="s">
+      <c r="K36" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="48"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="3" t="s">
         <v>15</v>
       </c>
@@ -5437,16 +5532,16 @@
       <c r="I37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="35"/>
     </row>
     <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="48"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
       <c r="G38" s="3" t="s">
         <v>16</v>
       </c>
@@ -5456,16 +5551,16 @@
       <c r="I38" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J38" s="37"/>
-      <c r="K38" s="41"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="35"/>
     </row>
     <row r="39" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="48"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
       <c r="G39" s="3" t="s">
         <v>20</v>
       </c>
@@ -5475,16 +5570,16 @@
       <c r="I39" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="41"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="35"/>
     </row>
     <row r="40" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="48"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
       <c r="G40" s="3" t="s">
         <v>21</v>
       </c>
@@ -5494,16 +5589,16 @@
       <c r="I40" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="41"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="35"/>
     </row>
     <row r="41" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="48"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
       <c r="G41" s="3" t="s">
         <v>22</v>
       </c>
@@ -5513,63 +5608,65 @@
       <c r="I41" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="41"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="35"/>
     </row>
     <row r="42" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="48"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="3"/>
       <c r="H42" s="11"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="41"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="35"/>
     </row>
     <row r="43" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="48"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="3"/>
       <c r="H43" s="11"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="41"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="35"/>
     </row>
     <row r="44" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="49"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="22"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="60"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="53"/>
     </row>
     <row r="45" spans="1:11" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
+      <c r="E45" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="46"/>
       <c r="G45" s="17" t="s">
         <v>12</v>
       </c>
@@ -5579,20 +5676,20 @@
       <c r="I45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="46" t="s">
+      <c r="J45" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="K45" s="26" t="s">
+      <c r="K45" s="44" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
       <c r="G46" s="3" t="s">
         <v>15</v>
       </c>
@@ -5602,16 +5699,16 @@
       <c r="I46" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="41"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="35"/>
     </row>
     <row r="47" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
       <c r="G47" s="3" t="s">
         <v>16</v>
       </c>
@@ -5621,24 +5718,26 @@
       <c r="I47" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="J47" s="37"/>
-      <c r="K47" s="41"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="35"/>
     </row>
     <row r="48" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
+      <c r="E48" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="39"/>
       <c r="G48" s="3" t="s">
         <v>12</v>
       </c>
@@ -5648,20 +5747,20 @@
       <c r="I48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J48" s="35" t="s">
+      <c r="J48" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="K48" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
       <c r="G49" s="3" t="s">
         <v>15</v>
       </c>
@@ -5671,16 +5770,16 @@
       <c r="I49" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J49" s="37"/>
-      <c r="K49" s="41"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="35"/>
     </row>
     <row r="50" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="34"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
       <c r="G50" s="3" t="s">
         <v>16</v>
       </c>
@@ -5690,24 +5789,26 @@
       <c r="I50" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J50" s="37"/>
-      <c r="K50" s="41"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="35"/>
     </row>
     <row r="51" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
+      <c r="E51" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="39"/>
       <c r="G51" s="3" t="s">
         <v>12</v>
       </c>
@@ -5717,20 +5818,20 @@
       <c r="I51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J51" s="35" t="s">
+      <c r="J51" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="K51" s="40" t="s">
+      <c r="K51" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
       <c r="G52" s="3" t="s">
         <v>15</v>
       </c>
@@ -5740,16 +5841,16 @@
       <c r="I52" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J52" s="37"/>
-      <c r="K52" s="41"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="34"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
       <c r="G53" s="3" t="s">
         <v>16</v>
       </c>
@@ -5759,45 +5860,176 @@
       <c r="I53" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="J53" s="37"/>
-      <c r="K53" s="41"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="35"/>
     </row>
     <row r="54" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="34"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="41"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="35"/>
     </row>
     <row r="55" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="34"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="41"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="35"/>
+    </row>
+    <row r="56" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J57" s="32"/>
+      <c r="K57" s="35"/>
+    </row>
+    <row r="58" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="35"/>
+    </row>
+    <row r="59" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="35"/>
+    </row>
+    <row r="60" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="J51:J55"/>
-    <mergeCell ref="K51:K55"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="F51:F55"/>
+  <mergeCells count="80">
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="F20:F26"/>
+    <mergeCell ref="J20:J26"/>
+    <mergeCell ref="K20:K26"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="E20:E26"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="K14:K19"/>
+    <mergeCell ref="J27:J35"/>
+    <mergeCell ref="K27:K35"/>
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="D36:D44"/>
+    <mergeCell ref="E36:E44"/>
+    <mergeCell ref="F36:F44"/>
+    <mergeCell ref="J36:J44"/>
+    <mergeCell ref="K36:K44"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="C27:C35"/>
+    <mergeCell ref="D27:D35"/>
+    <mergeCell ref="E27:E35"/>
+    <mergeCell ref="F27:F35"/>
     <mergeCell ref="J45:J47"/>
     <mergeCell ref="K45:K47"/>
     <mergeCell ref="A48:A50"/>
@@ -5814,54 +6046,22 @@
     <mergeCell ref="D45:D47"/>
     <mergeCell ref="E45:E47"/>
     <mergeCell ref="F45:F47"/>
-    <mergeCell ref="J27:J35"/>
-    <mergeCell ref="K27:K35"/>
-    <mergeCell ref="A36:A44"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="C36:C44"/>
-    <mergeCell ref="D36:D44"/>
-    <mergeCell ref="E36:E44"/>
-    <mergeCell ref="F36:F44"/>
-    <mergeCell ref="J36:J44"/>
-    <mergeCell ref="K36:K44"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="C27:C35"/>
-    <mergeCell ref="D27:D35"/>
-    <mergeCell ref="E27:E35"/>
-    <mergeCell ref="F27:F35"/>
-    <mergeCell ref="F20:F26"/>
-    <mergeCell ref="J20:J26"/>
-    <mergeCell ref="K20:K26"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="E20:E26"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="K14:K19"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="J51:J55"/>
+    <mergeCell ref="K51:K55"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="E51:E55"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="J56:J60"/>
+    <mergeCell ref="K56:K60"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5875,8 +6075,8 @@
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5886,19 +6086,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>100</v>
       </c>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>101</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -5910,19 +6111,20 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="25" t="s">
         <v>105</v>
       </c>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>106</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -5934,10 +6136,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="26" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5954,23 +6156,24 @@
         <v>111</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="27" t="s">
         <v>116</v>
       </c>
+      <c r="C41" s="27"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>113</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
